--- a/09-Environment/Tidsregistrering (Thomas Borg).xlsx
+++ b/09-Environment/Tidsregistrering (Thomas Borg).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Navn</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Forberedelse til d. 2015-02-24</t>
+  </si>
+  <si>
+    <t>3 hrs?</t>
+  </si>
+  <si>
+    <t>Requirement Specifier</t>
+  </si>
+  <si>
+    <t>Full dressed Use Case, Test Cases og mockup</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +437,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>42059</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
